--- a/Risultati/Pipeline2 TripleR/Cluster1.xlsx
+++ b/Risultati/Pipeline2 TripleR/Cluster1.xlsx
@@ -692,1801 +692,1801 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.15736318730842</v>
+        <v>13.51687330175527</v>
       </c>
       <c r="B2" t="n">
-        <v>22.18299862081452</v>
+        <v>12.19095462054962</v>
       </c>
       <c r="C2" t="n">
-        <v>31.13934156937347</v>
+        <v>11.74976300791305</v>
       </c>
       <c r="D2" t="n">
-        <v>8.968823237426335</v>
+        <v>11.46487165925586</v>
       </c>
       <c r="E2" t="n">
-        <v>19.41205487691656</v>
+        <v>12.7757022477421</v>
       </c>
       <c r="F2" t="n">
-        <v>16.45097856375679</v>
+        <v>12.40583985936862</v>
       </c>
       <c r="G2" t="n">
-        <v>24.05870999131776</v>
+        <v>12.49311153386715</v>
       </c>
       <c r="H2" t="n">
-        <v>23.98237850386148</v>
+        <v>12.78808540094465</v>
       </c>
       <c r="I2" t="n">
-        <v>15.96947454509398</v>
+        <v>13.17316104489463</v>
       </c>
       <c r="J2" t="n">
-        <v>10.22751616416235</v>
+        <v>12.64509427871351</v>
       </c>
       <c r="K2" t="n">
-        <v>23.82662753705771</v>
+        <v>12.30436071019098</v>
       </c>
       <c r="L2" t="n">
-        <v>7.94100239726888</v>
+        <v>12.58879531797622</v>
       </c>
       <c r="M2" t="n">
-        <v>11.715522636426</v>
+        <v>12.5049657923295</v>
       </c>
       <c r="N2" t="n">
-        <v>22.67870790500055</v>
+        <v>13.31584244580723</v>
       </c>
       <c r="O2" t="n">
-        <v>16.10779135897279</v>
+        <v>11.72308166838923</v>
       </c>
       <c r="P2" t="n">
-        <v>21.68705044838865</v>
+        <v>12.14208421222713</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.1317383305362</v>
+        <v>14.31044098188312</v>
       </c>
       <c r="R2" t="n">
-        <v>21.58248144758539</v>
+        <v>12.54652275684913</v>
       </c>
       <c r="S2" t="n">
-        <v>17.21663031927356</v>
+        <v>12.94027861830178</v>
       </c>
       <c r="T2" t="n">
-        <v>12.74415627028435</v>
+        <v>12.98704272350902</v>
       </c>
       <c r="U2" t="n">
-        <v>14.5110683553502</v>
+        <v>11.88247883612414</v>
       </c>
       <c r="V2" t="n">
-        <v>11.04228927422625</v>
+        <v>12.01241085685622</v>
       </c>
       <c r="W2" t="n">
-        <v>14.99158520990333</v>
+        <v>11.91061071948102</v>
       </c>
       <c r="X2" t="n">
-        <v>15.25807886643657</v>
+        <v>12.75103078079366</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.186978448003291</v>
+        <v>13.03650486909778</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.96905950478715</v>
+        <v>12.70665700112515</v>
       </c>
       <c r="AA2" t="n">
-        <v>16.45021457143424</v>
+        <v>12.59199676536088</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.12634470753578</v>
+        <v>12.60927993845084</v>
       </c>
       <c r="AC2" t="n">
-        <v>14.27006053762026</v>
+        <v>11.55151420483867</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.64650080940693</v>
+        <v>13.03347798531779</v>
       </c>
       <c r="AE2" t="n">
-        <v>24.18043987186437</v>
+        <v>12.63842123483509</v>
       </c>
       <c r="AF2" t="n">
-        <v>25.04412653835791</v>
+        <v>13.28044457069372</v>
       </c>
       <c r="AG2" t="n">
-        <v>17.6251637559664</v>
+        <v>13.18904689083481</v>
       </c>
       <c r="AH2" t="n">
-        <v>22.96641057664201</v>
+        <v>13.3685450674119</v>
       </c>
       <c r="AI2" t="n">
-        <v>13.09646777392087</v>
+        <v>12.31833822214391</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18.95745188222478</v>
+        <v>12.48322630814388</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.92790457126698</v>
+        <v>12.69602230453833</v>
       </c>
       <c r="AL2" t="n">
-        <v>12.25322496922031</v>
+        <v>12.78928368841794</v>
       </c>
       <c r="AM2" t="n">
-        <v>19.70843210256284</v>
+        <v>12.15202566654509</v>
       </c>
       <c r="AN2" t="n">
-        <v>17.15329575754977</v>
+        <v>12.38115863510251</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.050781122666127</v>
+        <v>13.08329848639493</v>
       </c>
       <c r="AP2" t="n">
-        <v>19.27086725811154</v>
+        <v>12.33368691621725</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17.70972602488376</v>
+        <v>12.48918791799593</v>
       </c>
       <c r="AR2" t="n">
-        <v>16.75405831447039</v>
+        <v>12.53967501102495</v>
       </c>
       <c r="AS2" t="n">
-        <v>22.2041100759882</v>
+        <v>15.19467343591401</v>
       </c>
       <c r="AT2" t="n">
-        <v>16.58579155274401</v>
+        <v>13.61918902124853</v>
       </c>
       <c r="AU2" t="n">
-        <v>18.25816247892233</v>
+        <v>12.32064073236198</v>
       </c>
       <c r="AV2" t="n">
-        <v>13.82927304816213</v>
+        <v>12.35568733908722</v>
       </c>
       <c r="AW2" t="n">
-        <v>13.28281668969882</v>
+        <v>13.18572548906729</v>
       </c>
       <c r="AX2" t="n">
-        <v>13.89203783147743</v>
+        <v>12.14474454815059</v>
       </c>
       <c r="AY2" t="n">
-        <v>16.77899084204218</v>
+        <v>12.87680029520834</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7.740994957402023</v>
+        <v>12.55669413726248</v>
       </c>
       <c r="BA2" t="n">
-        <v>9.126930322979693</v>
+        <v>12.26861313656439</v>
       </c>
       <c r="BB2" t="n">
-        <v>10.91925096099902</v>
+        <v>12.29719110565393</v>
       </c>
       <c r="BC2" t="n">
-        <v>19.57245038250315</v>
+        <v>12.93155415528289</v>
       </c>
       <c r="BD2" t="n">
-        <v>18.31430784633424</v>
+        <v>12.93264598204713</v>
       </c>
       <c r="BE2" t="n">
-        <v>21.79121709461588</v>
+        <v>12.91644342751624</v>
       </c>
       <c r="BF2" t="n">
-        <v>11.91504621475431</v>
+        <v>12.60179534521452</v>
       </c>
       <c r="BG2" t="n">
-        <v>11.03301865636123</v>
+        <v>12.30055274431405</v>
       </c>
       <c r="BH2" t="n">
-        <v>11.24661429855698</v>
+        <v>12.56688721067893</v>
       </c>
       <c r="BI2" t="n">
-        <v>16.80968676942443</v>
+        <v>12.75158329707024</v>
       </c>
       <c r="BJ2" t="n">
-        <v>16.38771686330426</v>
+        <v>12.67660761903855</v>
       </c>
       <c r="BK2" t="n">
-        <v>16.73615511238343</v>
+        <v>12.2881336692527</v>
       </c>
       <c r="BL2" t="n">
-        <v>13.93462735339305</v>
+        <v>12.95425967216522</v>
       </c>
       <c r="BM2" t="n">
-        <v>9.954574833048261</v>
+        <v>12.7304261691951</v>
       </c>
       <c r="BN2" t="n">
-        <v>21.38773747950518</v>
+        <v>12.60825285068806</v>
       </c>
       <c r="BO2" t="n">
-        <v>10.91963553731692</v>
+        <v>12.39234859456783</v>
       </c>
       <c r="BP2" t="n">
-        <v>18.66515598647402</v>
+        <v>12.73531385136706</v>
       </c>
       <c r="BQ2" t="n">
-        <v>16.83326117631968</v>
+        <v>12.3317738968903</v>
       </c>
       <c r="BR2" t="n">
-        <v>12.17598175204623</v>
+        <v>12.41916325356622</v>
       </c>
       <c r="BS2" t="n">
-        <v>17.20113092992722</v>
+        <v>12.55431787665884</v>
       </c>
       <c r="BT2" t="n">
-        <v>15.0390632416948</v>
+        <v>12.4550152126156</v>
       </c>
       <c r="BU2" t="n">
-        <v>16.13338357272042</v>
+        <v>13.06881539758944</v>
       </c>
       <c r="BV2" t="n">
-        <v>14.08257937571691</v>
+        <v>13.49429444811976</v>
       </c>
       <c r="BW2" t="n">
-        <v>13.63146716477887</v>
+        <v>12.31915486742348</v>
       </c>
       <c r="BX2" t="n">
-        <v>13.92466439611337</v>
+        <v>12.87829876311892</v>
       </c>
       <c r="BY2" t="n">
-        <v>20.93443023520449</v>
+        <v>12.44925009487444</v>
       </c>
       <c r="BZ2" t="n">
-        <v>11.25799632195036</v>
+        <v>12.59136932532229</v>
       </c>
       <c r="CA2" t="n">
-        <v>14.59849346208405</v>
+        <v>12.83202629392326</v>
       </c>
       <c r="CB2" t="n">
-        <v>15.15546391928237</v>
+        <v>12.95275273066131</v>
       </c>
       <c r="CC2" t="n">
-        <v>10.51426500682574</v>
+        <v>12.12004305422206</v>
       </c>
       <c r="CD2" t="n">
-        <v>13.75324093542529</v>
+        <v>12.67684167381393</v>
       </c>
       <c r="CE2" t="n">
-        <v>17.95200760433328</v>
+        <v>12.65641651884537</v>
       </c>
       <c r="CF2" t="n">
-        <v>16.17727510017284</v>
+        <v>13.429130519529</v>
       </c>
       <c r="CG2" t="n">
-        <v>8.840110882326098</v>
+        <v>12.57979415632162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22.9156826569508</v>
+        <v>13.81694089406254</v>
       </c>
       <c r="B3" t="n">
-        <v>17.68992449516533</v>
+        <v>11.60722952874038</v>
       </c>
       <c r="C3" t="n">
-        <v>21.30860414603841</v>
+        <v>12.06390868406346</v>
       </c>
       <c r="D3" t="n">
-        <v>23.50554211156422</v>
+        <v>11.42973549652387</v>
       </c>
       <c r="E3" t="n">
-        <v>11.75097592766081</v>
+        <v>12.72241160028196</v>
       </c>
       <c r="F3" t="n">
-        <v>17.89653322553279</v>
+        <v>12.45969551075154</v>
       </c>
       <c r="G3" t="n">
-        <v>17.50043147803164</v>
+        <v>12.91153937631469</v>
       </c>
       <c r="H3" t="n">
-        <v>19.34532389541931</v>
+        <v>12.59737545608035</v>
       </c>
       <c r="I3" t="n">
-        <v>19.87363335168176</v>
+        <v>13.37497594191279</v>
       </c>
       <c r="J3" t="n">
-        <v>22.8585937103133</v>
+        <v>12.42647117435678</v>
       </c>
       <c r="K3" t="n">
-        <v>12.14437332656911</v>
+        <v>12.23841830018226</v>
       </c>
       <c r="L3" t="n">
-        <v>15.82771583311295</v>
+        <v>12.63678607081343</v>
       </c>
       <c r="M3" t="n">
-        <v>13.63898113188276</v>
+        <v>12.62539507813082</v>
       </c>
       <c r="N3" t="n">
-        <v>15.87522651780943</v>
+        <v>12.98264814408903</v>
       </c>
       <c r="O3" t="n">
-        <v>33.1160742179083</v>
+        <v>12.05651146156264</v>
       </c>
       <c r="P3" t="n">
-        <v>26.19061093452368</v>
+        <v>12.45710401288114</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.55946265539792</v>
+        <v>13.89994868836085</v>
       </c>
       <c r="R3" t="n">
-        <v>19.53788096026683</v>
+        <v>12.55791990475699</v>
       </c>
       <c r="S3" t="n">
-        <v>18.32506037809655</v>
+        <v>13.20899906634973</v>
       </c>
       <c r="T3" t="n">
-        <v>8.36481507918614</v>
+        <v>13.13874377539645</v>
       </c>
       <c r="U3" t="n">
-        <v>13.43590450538093</v>
+        <v>12.08821610830609</v>
       </c>
       <c r="V3" t="n">
-        <v>12.55280019072244</v>
+        <v>12.18269143762852</v>
       </c>
       <c r="W3" t="n">
-        <v>8.461952270504508</v>
+        <v>12.03980874939262</v>
       </c>
       <c r="X3" t="n">
-        <v>12.83193868497135</v>
+        <v>12.74104312154918</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.87569450330789</v>
+        <v>13.75663476057529</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.223424036139315</v>
+        <v>12.64247763428929</v>
       </c>
       <c r="AA3" t="n">
-        <v>12.09456747600246</v>
+        <v>12.52978270877965</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.98219457111578</v>
+        <v>12.65300898969743</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.418560138233582</v>
+        <v>11.78436586232565</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.1180114526858</v>
+        <v>13.76327493386911</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.678624795288666</v>
+        <v>12.44989884624068</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.179245317799467</v>
+        <v>12.97593445479186</v>
       </c>
       <c r="AG3" t="n">
-        <v>22.93582813326307</v>
+        <v>12.87751759029387</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.65161284271218</v>
+        <v>13.08096767252475</v>
       </c>
       <c r="AI3" t="n">
-        <v>12.41431492750215</v>
+        <v>12.35238254039799</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12.75201549091245</v>
+        <v>12.38112427825758</v>
       </c>
       <c r="AK3" t="n">
-        <v>10.56764281240025</v>
+        <v>12.46125413778354</v>
       </c>
       <c r="AL3" t="n">
-        <v>12.30120002110372</v>
+        <v>12.64281598688572</v>
       </c>
       <c r="AM3" t="n">
-        <v>11.12547548349166</v>
+        <v>12.19444145381672</v>
       </c>
       <c r="AN3" t="n">
-        <v>17.41696865588557</v>
+        <v>12.64938316708611</v>
       </c>
       <c r="AO3" t="n">
-        <v>16.64088293401371</v>
+        <v>12.78487348177659</v>
       </c>
       <c r="AP3" t="n">
-        <v>11.42634457548265</v>
+        <v>12.24041231874516</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16.31461269041076</v>
+        <v>12.37322060325652</v>
       </c>
       <c r="AR3" t="n">
-        <v>10.97016983953592</v>
+        <v>12.38620600249516</v>
       </c>
       <c r="AS3" t="n">
-        <v>9.561578794740525</v>
+        <v>14.59108325723639</v>
       </c>
       <c r="AT3" t="n">
-        <v>10.39894801989384</v>
+        <v>13.21052033268416</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.691579823734467</v>
+        <v>12.25935947941745</v>
       </c>
       <c r="AV3" t="n">
-        <v>23.58786987489123</v>
+        <v>12.33936585723686</v>
       </c>
       <c r="AW3" t="n">
-        <v>10.69012614154768</v>
+        <v>12.83199305308644</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.706902319912166</v>
+        <v>12.3862119042721</v>
       </c>
       <c r="AY3" t="n">
-        <v>11.86140725602896</v>
+        <v>12.65029487469434</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17.05516805130339</v>
+        <v>12.39392923984084</v>
       </c>
       <c r="BA3" t="n">
-        <v>8.629554507814689</v>
+        <v>12.20543205518564</v>
       </c>
       <c r="BB3" t="n">
-        <v>12.24283908929571</v>
+        <v>12.20306825133593</v>
       </c>
       <c r="BC3" t="n">
-        <v>14.03609178091955</v>
+        <v>12.66440889977685</v>
       </c>
       <c r="BD3" t="n">
-        <v>16.1146165351594</v>
+        <v>12.67661024217545</v>
       </c>
       <c r="BE3" t="n">
-        <v>17.70351056986393</v>
+        <v>12.68327616328085</v>
       </c>
       <c r="BF3" t="n">
-        <v>16.58215444717846</v>
+        <v>12.47695411359731</v>
       </c>
       <c r="BG3" t="n">
-        <v>13.92731785080199</v>
+        <v>12.16139877238492</v>
       </c>
       <c r="BH3" t="n">
-        <v>10.94390411606359</v>
+        <v>12.39953577932127</v>
       </c>
       <c r="BI3" t="n">
-        <v>11.93016285794671</v>
+        <v>12.55102523650159</v>
       </c>
       <c r="BJ3" t="n">
-        <v>15.62717602401281</v>
+        <v>12.52785681399096</v>
       </c>
       <c r="BK3" t="n">
-        <v>19.05511329537535</v>
+        <v>12.54497048205531</v>
       </c>
       <c r="BL3" t="n">
-        <v>14.30193402122603</v>
+        <v>12.74675334233487</v>
       </c>
       <c r="BM3" t="n">
-        <v>13.38831483510297</v>
+        <v>12.7948514332789</v>
       </c>
       <c r="BN3" t="n">
-        <v>14.0263852123806</v>
+        <v>12.43077052745647</v>
       </c>
       <c r="BO3" t="n">
-        <v>13.74577340657645</v>
+        <v>12.60694871373314</v>
       </c>
       <c r="BP3" t="n">
-        <v>9.608335308184696</v>
+        <v>13.06683655880963</v>
       </c>
       <c r="BQ3" t="n">
-        <v>21.83649792252445</v>
+        <v>12.24235310731366</v>
       </c>
       <c r="BR3" t="n">
-        <v>17.32261806414336</v>
+        <v>12.29831842269208</v>
       </c>
       <c r="BS3" t="n">
-        <v>15.40532564771203</v>
+        <v>12.42105964087477</v>
       </c>
       <c r="BT3" t="n">
-        <v>10.58337625900216</v>
+        <v>12.53263303042236</v>
       </c>
       <c r="BU3" t="n">
-        <v>8.669739641615356</v>
+        <v>13.53631028331957</v>
       </c>
       <c r="BV3" t="n">
-        <v>10.6284871959259</v>
+        <v>13.12737565044328</v>
       </c>
       <c r="BW3" t="n">
-        <v>8.341275729212464</v>
+        <v>12.20150982568547</v>
       </c>
       <c r="BX3" t="n">
-        <v>12.6380212304393</v>
+        <v>12.61477369813995</v>
       </c>
       <c r="BY3" t="n">
-        <v>11.91137324811888</v>
+        <v>12.31735987667759</v>
       </c>
       <c r="BZ3" t="n">
-        <v>9.730593331340687</v>
+        <v>12.40346104914917</v>
       </c>
       <c r="CA3" t="n">
-        <v>14.38063390220947</v>
+        <v>12.56264443364784</v>
       </c>
       <c r="CB3" t="n">
-        <v>15.39181977423034</v>
+        <v>12.70628506334256</v>
       </c>
       <c r="CC3" t="n">
-        <v>7.337310124214195</v>
+        <v>12.07136467400158</v>
       </c>
       <c r="CD3" t="n">
-        <v>12.60342642167532</v>
+        <v>12.45719601227247</v>
       </c>
       <c r="CE3" t="n">
-        <v>7.640174686898346</v>
+        <v>12.6509210308522</v>
       </c>
       <c r="CF3" t="n">
-        <v>16.50928056074955</v>
+        <v>13.06954929785104</v>
       </c>
       <c r="CG3" t="n">
-        <v>15.00291071997316</v>
+        <v>12.51702169883757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19.43385497828817</v>
+        <v>14.76920718344937</v>
       </c>
       <c r="B4" t="n">
-        <v>16.83167628110123</v>
+        <v>12.62949831085777</v>
       </c>
       <c r="C4" t="n">
-        <v>21.26073017807195</v>
+        <v>13.02241732530373</v>
       </c>
       <c r="D4" t="n">
-        <v>9.64193339088275</v>
+        <v>12.0678800179508</v>
       </c>
       <c r="E4" t="n">
-        <v>28.18744076263384</v>
+        <v>13.7915852306047</v>
       </c>
       <c r="F4" t="n">
-        <v>18.68994012838528</v>
+        <v>12.95579356963975</v>
       </c>
       <c r="G4" t="n">
-        <v>7.878041973245688</v>
+        <v>13.34598258277182</v>
       </c>
       <c r="H4" t="n">
-        <v>17.60845800598079</v>
+        <v>12.89702203501761</v>
       </c>
       <c r="I4" t="n">
-        <v>14.91613166223344</v>
+        <v>14.13908672886015</v>
       </c>
       <c r="J4" t="n">
-        <v>15.87995199061774</v>
+        <v>12.90948489297696</v>
       </c>
       <c r="K4" t="n">
-        <v>16.47838640909364</v>
+        <v>12.71520177657302</v>
       </c>
       <c r="L4" t="n">
-        <v>4.815262132986092</v>
+        <v>12.94102180998559</v>
       </c>
       <c r="M4" t="n">
-        <v>15.67006252317711</v>
+        <v>13.04073742112736</v>
       </c>
       <c r="N4" t="n">
-        <v>12.90880431081921</v>
+        <v>13.11839940287751</v>
       </c>
       <c r="O4" t="n">
-        <v>11.35676219307765</v>
+        <v>11.85175138487116</v>
       </c>
       <c r="P4" t="n">
-        <v>18.31334726318964</v>
+        <v>12.16744922619452</v>
       </c>
       <c r="Q4" t="n">
-        <v>19.16673740202188</v>
+        <v>14.25834943558439</v>
       </c>
       <c r="R4" t="n">
-        <v>15.15199910628768</v>
+        <v>12.79367249902133</v>
       </c>
       <c r="S4" t="n">
-        <v>32.81053976763298</v>
+        <v>13.6766881805983</v>
       </c>
       <c r="T4" t="n">
-        <v>7.015445791397947</v>
+        <v>13.19706546568839</v>
       </c>
       <c r="U4" t="n">
-        <v>23.31538822522644</v>
+        <v>12.0227194398108</v>
       </c>
       <c r="V4" t="n">
-        <v>15.06562688953727</v>
+        <v>12.17388669652922</v>
       </c>
       <c r="W4" t="n">
-        <v>20.9610204455985</v>
+        <v>12.04105059566542</v>
       </c>
       <c r="X4" t="n">
-        <v>16.77239934417235</v>
+        <v>13.04803318103447</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.76027323270872</v>
+        <v>13.80222671392255</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.24192717209849</v>
+        <v>12.93249745656875</v>
       </c>
       <c r="AA4" t="n">
-        <v>11.08943874892588</v>
+        <v>12.72582136110173</v>
       </c>
       <c r="AB4" t="n">
-        <v>21.6728495345235</v>
+        <v>12.90123499206701</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.575822900326264</v>
+        <v>11.77609569281531</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.30895008286551</v>
+        <v>13.99382445953496</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.20698885707721</v>
+        <v>12.77191539001391</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.83388796580652</v>
+        <v>13.61598516729602</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.75508429526699</v>
+        <v>13.28438474272725</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.42312037835156</v>
+        <v>13.06669302784284</v>
       </c>
       <c r="AI4" t="n">
-        <v>16.64999988747643</v>
+        <v>12.49703221445465</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12.37148204632833</v>
+        <v>12.66339691787912</v>
       </c>
       <c r="AK4" t="n">
-        <v>14.72092678024711</v>
+        <v>12.77152358000277</v>
       </c>
       <c r="AL4" t="n">
-        <v>20.22841575845136</v>
+        <v>12.9589344240298</v>
       </c>
       <c r="AM4" t="n">
-        <v>17.23690542757573</v>
+        <v>12.31293242870524</v>
       </c>
       <c r="AN4" t="n">
-        <v>13.52468132764447</v>
+        <v>12.80529459883189</v>
       </c>
       <c r="AO4" t="n">
-        <v>20.60473730145413</v>
+        <v>13.07973639464276</v>
       </c>
       <c r="AP4" t="n">
-        <v>8.007502161857275</v>
+        <v>12.28862660920096</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16.29421461777037</v>
+        <v>12.50099090835634</v>
       </c>
       <c r="AR4" t="n">
-        <v>23.22880333792639</v>
+        <v>12.58505972385787</v>
       </c>
       <c r="AS4" t="n">
-        <v>17.29032695646929</v>
+        <v>15.08909166593727</v>
       </c>
       <c r="AT4" t="n">
-        <v>16.01951839976433</v>
+        <v>13.54450751245894</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.293241001936863</v>
+        <v>12.37619228565331</v>
       </c>
       <c r="AV4" t="n">
-        <v>20.79546574232703</v>
+        <v>12.5311683841354</v>
       </c>
       <c r="AW4" t="n">
-        <v>18.0430692136456</v>
+        <v>13.13498707316927</v>
       </c>
       <c r="AX4" t="n">
-        <v>16.08385924614178</v>
+        <v>12.44204855834239</v>
       </c>
       <c r="AY4" t="n">
-        <v>20.91659893097726</v>
+        <v>12.99448851369203</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15.91771738520483</v>
+        <v>12.5451481348617</v>
       </c>
       <c r="BA4" t="n">
-        <v>12.13133026821573</v>
+        <v>12.37300482945756</v>
       </c>
       <c r="BB4" t="n">
-        <v>21.9706229684587</v>
+        <v>12.36268814619032</v>
       </c>
       <c r="BC4" t="n">
-        <v>17.8866356284929</v>
+        <v>12.95831423744099</v>
       </c>
       <c r="BD4" t="n">
-        <v>9.867875507147554</v>
+        <v>12.88313068605915</v>
       </c>
       <c r="BE4" t="n">
-        <v>10.25847236814281</v>
+        <v>13.00049432585798</v>
       </c>
       <c r="BF4" t="n">
-        <v>7.378913544331947</v>
+        <v>12.57359419697916</v>
       </c>
       <c r="BG4" t="n">
-        <v>15.53618110417254</v>
+        <v>12.28228040000191</v>
       </c>
       <c r="BH4" t="n">
-        <v>12.24910691518059</v>
+        <v>12.61421075207191</v>
       </c>
       <c r="BI4" t="n">
-        <v>9.306023828748264</v>
+        <v>12.84040879928075</v>
       </c>
       <c r="BJ4" t="n">
-        <v>17.66087299603787</v>
+        <v>12.81368221667313</v>
       </c>
       <c r="BK4" t="n">
-        <v>16.5877207910667</v>
+        <v>12.59629902953936</v>
       </c>
       <c r="BL4" t="n">
-        <v>19.46923804848561</v>
+        <v>12.91265227015458</v>
       </c>
       <c r="BM4" t="n">
-        <v>25.12803070869027</v>
+        <v>13.05531215649615</v>
       </c>
       <c r="BN4" t="n">
-        <v>9.948180966630469</v>
+        <v>12.59547643282982</v>
       </c>
       <c r="BO4" t="n">
-        <v>13.37753926281848</v>
+        <v>12.76870291112892</v>
       </c>
       <c r="BP4" t="n">
-        <v>14.39496080717912</v>
+        <v>13.3399118492875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>10.56749360398718</v>
+        <v>12.48622327528011</v>
       </c>
       <c r="BR4" t="n">
-        <v>16.94699182670055</v>
+        <v>12.48389767111189</v>
       </c>
       <c r="BS4" t="n">
-        <v>13.89178034148245</v>
+        <v>12.53194920474485</v>
       </c>
       <c r="BT4" t="n">
-        <v>14.25788258272831</v>
+        <v>12.72304777718568</v>
       </c>
       <c r="BU4" t="n">
-        <v>14.79409394013323</v>
+        <v>13.80648895005429</v>
       </c>
       <c r="BV4" t="n">
-        <v>18.02420331853443</v>
+        <v>13.41358890377283</v>
       </c>
       <c r="BW4" t="n">
-        <v>13.87798097447966</v>
+        <v>12.34504681034542</v>
       </c>
       <c r="BX4" t="n">
-        <v>18.06343578217995</v>
+        <v>12.85231301241912</v>
       </c>
       <c r="BY4" t="n">
-        <v>9.851273329615976</v>
+        <v>12.49903710175856</v>
       </c>
       <c r="BZ4" t="n">
-        <v>12.90507107480436</v>
+        <v>12.59333670700548</v>
       </c>
       <c r="CA4" t="n">
-        <v>16.77351642617894</v>
+        <v>12.78712287872326</v>
       </c>
       <c r="CB4" t="n">
-        <v>20.7224756576481</v>
+        <v>12.93419929986603</v>
       </c>
       <c r="CC4" t="n">
-        <v>12.65587668664348</v>
+        <v>12.15886685504758</v>
       </c>
       <c r="CD4" t="n">
-        <v>13.84342275368694</v>
+        <v>12.73388986199256</v>
       </c>
       <c r="CE4" t="n">
-        <v>26.25223615483531</v>
+        <v>12.95436247375601</v>
       </c>
       <c r="CF4" t="n">
-        <v>27.12085788122737</v>
+        <v>13.3829055895514</v>
       </c>
       <c r="CG4" t="n">
-        <v>30.21706178353287</v>
+        <v>12.69704645829215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18.97614955715755</v>
+        <v>15.01887035204695</v>
       </c>
       <c r="B5" t="n">
-        <v>11.00087428924552</v>
+        <v>12.2905581536441</v>
       </c>
       <c r="C5" t="n">
-        <v>19.16159415763774</v>
+        <v>13.52696820288493</v>
       </c>
       <c r="D5" t="n">
-        <v>12.62686341806846</v>
+        <v>12.66534328572017</v>
       </c>
       <c r="E5" t="n">
-        <v>6.339228184907451</v>
+        <v>14.28294069040877</v>
       </c>
       <c r="F5" t="n">
-        <v>9.639177605201766</v>
+        <v>13.97450764362327</v>
       </c>
       <c r="G5" t="n">
-        <v>15.35003426018356</v>
+        <v>14.55151750765767</v>
       </c>
       <c r="H5" t="n">
-        <v>6.451797776687502</v>
+        <v>14.00380571982267</v>
       </c>
       <c r="I5" t="n">
-        <v>13.83418987203325</v>
+        <v>14.66686755813546</v>
       </c>
       <c r="J5" t="n">
-        <v>12.88830694920052</v>
+        <v>13.54654238448719</v>
       </c>
       <c r="K5" t="n">
-        <v>15.7075147152655</v>
+        <v>13.53158896821085</v>
       </c>
       <c r="L5" t="n">
-        <v>10.87688714620844</v>
+        <v>13.88525106511431</v>
       </c>
       <c r="M5" t="n">
-        <v>10.86345812917817</v>
+        <v>13.86427778824116</v>
       </c>
       <c r="N5" t="n">
-        <v>9.506798124467014</v>
+        <v>14.21131717795703</v>
       </c>
       <c r="O5" t="n">
-        <v>10.46557884236668</v>
+        <v>13.19639637560616</v>
       </c>
       <c r="P5" t="n">
-        <v>8.33259024858023</v>
+        <v>13.70884837205779</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.84704761664558</v>
+        <v>15.01136903352296</v>
       </c>
       <c r="R5" t="n">
-        <v>10.82614888900643</v>
+        <v>13.62983947659668</v>
       </c>
       <c r="S5" t="n">
-        <v>13.87641062319757</v>
+        <v>14.45104614017591</v>
       </c>
       <c r="T5" t="n">
-        <v>17.14174400612036</v>
+        <v>14.38937506335315</v>
       </c>
       <c r="U5" t="n">
-        <v>8.262924424422248</v>
+        <v>13.08808614855027</v>
       </c>
       <c r="V5" t="n">
-        <v>12.30905119251552</v>
+        <v>13.27752789658447</v>
       </c>
       <c r="W5" t="n">
-        <v>12.15220163311712</v>
+        <v>13.26872729401562</v>
       </c>
       <c r="X5" t="n">
-        <v>14.22072981200582</v>
+        <v>13.79620472918566</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.46153050366012</v>
+        <v>14.8667378841327</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.6338439565539</v>
+        <v>13.7586791493241</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.43738171813041</v>
+        <v>13.63482134817417</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.57757361002258</v>
+        <v>13.72738972994572</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.4705581672312</v>
+        <v>12.87016537787859</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.47360236460608</v>
+        <v>14.80388652533145</v>
       </c>
       <c r="AE5" t="n">
-        <v>12.92753424751282</v>
+        <v>13.52815369651853</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.47309914578126</v>
+        <v>14.09385429581628</v>
       </c>
       <c r="AG5" t="n">
-        <v>16.24559701027903</v>
+        <v>13.99561052747057</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.84583583549013</v>
+        <v>14.29488143933609</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.729900224017291</v>
+        <v>13.44268444380788</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12.77441708124685</v>
+        <v>13.46425215493992</v>
       </c>
       <c r="AK5" t="n">
-        <v>7.229951935348998</v>
+        <v>13.54576753394172</v>
       </c>
       <c r="AL5" t="n">
-        <v>10.44244631899189</v>
+        <v>13.75471559785692</v>
       </c>
       <c r="AM5" t="n">
-        <v>11.08571058714964</v>
+        <v>13.24179223453048</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.057931022892738</v>
+        <v>13.7570482481713</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.897403606509553</v>
+        <v>13.88403184576414</v>
       </c>
       <c r="AP5" t="n">
-        <v>12.39325196733513</v>
+        <v>13.41592768834035</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11.12850012027548</v>
+        <v>13.49663524774501</v>
       </c>
       <c r="AR5" t="n">
-        <v>12.56883435037771</v>
+        <v>13.53995666653879</v>
       </c>
       <c r="AS5" t="n">
-        <v>15.49833891693425</v>
+        <v>15.55358183405551</v>
       </c>
       <c r="AT5" t="n">
-        <v>12.12667055225421</v>
+        <v>14.30779599456618</v>
       </c>
       <c r="AU5" t="n">
-        <v>14.4015814926185</v>
+        <v>13.38753285424104</v>
       </c>
       <c r="AV5" t="n">
-        <v>6.768421934172618</v>
+        <v>13.45158040162726</v>
       </c>
       <c r="AW5" t="n">
-        <v>11.28438378660753</v>
+        <v>13.93277594557236</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.912367859828119</v>
+        <v>13.44511075549492</v>
       </c>
       <c r="AY5" t="n">
-        <v>11.71659091683419</v>
+        <v>13.77603704090597</v>
       </c>
       <c r="AZ5" t="n">
-        <v>8.097703383727547</v>
+        <v>13.54179215361327</v>
       </c>
       <c r="BA5" t="n">
-        <v>14.66479954980981</v>
+        <v>13.32859015798411</v>
       </c>
       <c r="BB5" t="n">
-        <v>13.36736076358844</v>
+        <v>13.33112200024611</v>
       </c>
       <c r="BC5" t="n">
-        <v>13.86162310533725</v>
+        <v>13.7793154924488</v>
       </c>
       <c r="BD5" t="n">
-        <v>9.802712298884503</v>
+        <v>13.82457899053938</v>
       </c>
       <c r="BE5" t="n">
-        <v>15.4073323945023</v>
+        <v>13.80364592382406</v>
       </c>
       <c r="BF5" t="n">
-        <v>8.114739083767621</v>
+        <v>13.68828045066345</v>
       </c>
       <c r="BG5" t="n">
-        <v>8.899501746993549</v>
+        <v>13.32249044931731</v>
       </c>
       <c r="BH5" t="n">
-        <v>7.827934584174918</v>
+        <v>13.52575429222629</v>
       </c>
       <c r="BI5" t="n">
-        <v>12.80035177766835</v>
+        <v>13.66902952522735</v>
       </c>
       <c r="BJ5" t="n">
-        <v>7.57623362957044</v>
+        <v>13.6585356283445</v>
       </c>
       <c r="BK5" t="n">
-        <v>12.65393705510071</v>
+        <v>13.60374306086111</v>
       </c>
       <c r="BL5" t="n">
-        <v>11.62489356158028</v>
+        <v>13.91850972413718</v>
       </c>
       <c r="BM5" t="n">
-        <v>11.88801647111389</v>
+        <v>13.89812384731689</v>
       </c>
       <c r="BN5" t="n">
-        <v>13.93194932326374</v>
+        <v>13.58127804989314</v>
       </c>
       <c r="BO5" t="n">
-        <v>15.95551276958058</v>
+        <v>13.69133066208371</v>
       </c>
       <c r="BP5" t="n">
-        <v>11.5303454887086</v>
+        <v>14.23129173558764</v>
       </c>
       <c r="BQ5" t="n">
-        <v>11.07781722722897</v>
+        <v>13.35053348820745</v>
       </c>
       <c r="BR5" t="n">
-        <v>9.048020148454977</v>
+        <v>13.41770696159747</v>
       </c>
       <c r="BS5" t="n">
-        <v>7.931809668643269</v>
+        <v>13.59761688113856</v>
       </c>
       <c r="BT5" t="n">
-        <v>10.38331582906896</v>
+        <v>13.62373526667</v>
       </c>
       <c r="BU5" t="n">
-        <v>20.58848882735708</v>
+        <v>14.72884785523591</v>
       </c>
       <c r="BV5" t="n">
-        <v>15.17812637825814</v>
+        <v>14.23638410186375</v>
       </c>
       <c r="BW5" t="n">
-        <v>8.076471161976947</v>
+        <v>13.33814602360922</v>
       </c>
       <c r="BX5" t="n">
-        <v>9.990068660998432</v>
+        <v>13.74646184998742</v>
       </c>
       <c r="BY5" t="n">
-        <v>10.4893171892129</v>
+        <v>13.44436483884925</v>
       </c>
       <c r="BZ5" t="n">
-        <v>10.75227327241742</v>
+        <v>13.54071442126967</v>
       </c>
       <c r="CA5" t="n">
-        <v>10.97235162544882</v>
+        <v>13.69459006707135</v>
       </c>
       <c r="CB5" t="n">
-        <v>11.31826244982001</v>
+        <v>13.84752735539905</v>
       </c>
       <c r="CC5" t="n">
-        <v>25.49628831356018</v>
+        <v>13.19873850161938</v>
       </c>
       <c r="CD5" t="n">
-        <v>7.349779906599389</v>
+        <v>13.57046813802075</v>
       </c>
       <c r="CE5" t="n">
-        <v>10.83797410345167</v>
+        <v>13.76175954285624</v>
       </c>
       <c r="CF5" t="n">
-        <v>8.565028438009632</v>
+        <v>14.17853375717155</v>
       </c>
       <c r="CG5" t="n">
-        <v>9.829112173312534</v>
+        <v>13.62386865655924</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>37.57289835536697</v>
+        <v>13.16897384983088</v>
       </c>
       <c r="B6" t="n">
-        <v>14.84358769718495</v>
+        <v>11.48431410239292</v>
       </c>
       <c r="C6" t="n">
-        <v>17.35048552091983</v>
+        <v>11.7256796354345</v>
       </c>
       <c r="D6" t="n">
-        <v>14.49185838277483</v>
+        <v>11.29755843624699</v>
       </c>
       <c r="E6" t="n">
-        <v>11.81268311523202</v>
+        <v>12.56295671115582</v>
       </c>
       <c r="F6" t="n">
-        <v>11.20901591659037</v>
+        <v>12.46055344873248</v>
       </c>
       <c r="G6" t="n">
-        <v>19.39789419998573</v>
+        <v>12.94493851131149</v>
       </c>
       <c r="H6" t="n">
-        <v>16.07392016665838</v>
+        <v>12.95297134755863</v>
       </c>
       <c r="I6" t="n">
-        <v>15.44504668677339</v>
+        <v>13.59091308344581</v>
       </c>
       <c r="J6" t="n">
-        <v>25.43548525934222</v>
+        <v>12.69357777742587</v>
       </c>
       <c r="K6" t="n">
-        <v>23.27466973422483</v>
+        <v>12.68871294569226</v>
       </c>
       <c r="L6" t="n">
-        <v>9.07621559826223</v>
+        <v>12.73964401888264</v>
       </c>
       <c r="M6" t="n">
-        <v>14.41397138078896</v>
+        <v>12.71603629258379</v>
       </c>
       <c r="N6" t="n">
-        <v>19.07467841752512</v>
+        <v>13.50501453847389</v>
       </c>
       <c r="O6" t="n">
-        <v>12.53176967920329</v>
+        <v>12.08641709855979</v>
       </c>
       <c r="P6" t="n">
-        <v>7.61814855881623</v>
+        <v>12.53020616043926</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.468883217901785</v>
+        <v>14.76758485210411</v>
       </c>
       <c r="R6" t="n">
-        <v>6.088836311824009</v>
+        <v>12.80009796306748</v>
       </c>
       <c r="S6" t="n">
-        <v>8.13108622781059</v>
+        <v>13.31812139732456</v>
       </c>
       <c r="T6" t="n">
-        <v>19.28753073279622</v>
+        <v>13.37813110015592</v>
       </c>
       <c r="U6" t="n">
-        <v>14.75499505309805</v>
+        <v>12.1792806132597</v>
       </c>
       <c r="V6" t="n">
-        <v>13.82245060659155</v>
+        <v>12.26649865258572</v>
       </c>
       <c r="W6" t="n">
-        <v>15.83361536943211</v>
+        <v>12.17975913686391</v>
       </c>
       <c r="X6" t="n">
-        <v>14.23587974689445</v>
+        <v>12.98996029006121</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.83759479213827</v>
+        <v>13.81863840661084</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.39111313005316</v>
+        <v>12.93156335697769</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.1420789657569</v>
+        <v>12.83380594535818</v>
       </c>
       <c r="AB6" t="n">
-        <v>20.33015378195816</v>
+        <v>12.86165866088828</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.64591676575101</v>
+        <v>11.81086971426406</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.86742204700309</v>
+        <v>13.73772339247585</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.687902057897515</v>
+        <v>12.78847022544923</v>
       </c>
       <c r="AF6" t="n">
-        <v>30.77279560492505</v>
+        <v>13.38931595210811</v>
       </c>
       <c r="AG6" t="n">
-        <v>25.2488224151735</v>
+        <v>13.29137103681074</v>
       </c>
       <c r="AH6" t="n">
-        <v>20.1847419840916</v>
+        <v>13.67931039823211</v>
       </c>
       <c r="AI6" t="n">
-        <v>17.86098245726886</v>
+        <v>12.55030619305704</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.246304391237965</v>
+        <v>12.61574113384136</v>
       </c>
       <c r="AK6" t="n">
-        <v>15.01384851935491</v>
+        <v>12.80828719516641</v>
       </c>
       <c r="AL6" t="n">
-        <v>13.47344556618467</v>
+        <v>12.96475799096101</v>
       </c>
       <c r="AM6" t="n">
-        <v>7.550424312736631</v>
+        <v>12.33885787764673</v>
       </c>
       <c r="AN6" t="n">
-        <v>21.01341670501391</v>
+        <v>12.71858720006638</v>
       </c>
       <c r="AO6" t="n">
-        <v>24.21611267298558</v>
+        <v>13.21896735894927</v>
       </c>
       <c r="AP6" t="n">
-        <v>15.50162974935472</v>
+        <v>12.50190331614688</v>
       </c>
       <c r="AQ6" t="n">
-        <v>20.01965032814339</v>
+        <v>12.65796909865951</v>
       </c>
       <c r="AR6" t="n">
-        <v>11.17465258735169</v>
+        <v>12.69242724569544</v>
       </c>
       <c r="AS6" t="n">
-        <v>19.32111823282706</v>
+        <v>15.6020270136389</v>
       </c>
       <c r="AT6" t="n">
-        <v>12.74966437956448</v>
+        <v>13.78505936690012</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.17926139837013</v>
+        <v>12.51265225134554</v>
       </c>
       <c r="AV6" t="n">
-        <v>17.81088066182748</v>
+        <v>12.54467421818975</v>
       </c>
       <c r="AW6" t="n">
-        <v>10.78762904857423</v>
+        <v>13.29823151078175</v>
       </c>
       <c r="AX6" t="n">
-        <v>12.67214541670194</v>
+        <v>12.42697205917919</v>
       </c>
       <c r="AY6" t="n">
-        <v>16.48720072999316</v>
+        <v>12.99631484726404</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8.278226955220207</v>
+        <v>12.75498038311126</v>
       </c>
       <c r="BA6" t="n">
-        <v>14.82379017777172</v>
+        <v>12.4296179461456</v>
       </c>
       <c r="BB6" t="n">
-        <v>7.587287714054372</v>
+        <v>12.45046797012258</v>
       </c>
       <c r="BC6" t="n">
-        <v>11.37805525701294</v>
+        <v>13.04627003716337</v>
       </c>
       <c r="BD6" t="n">
-        <v>18.45723669571723</v>
+        <v>13.1664503476807</v>
       </c>
       <c r="BE6" t="n">
-        <v>17.09662769955307</v>
+        <v>13.04563796321319</v>
       </c>
       <c r="BF6" t="n">
-        <v>16.31546946284022</v>
+        <v>12.96375507756549</v>
       </c>
       <c r="BG6" t="n">
-        <v>7.946199840226044</v>
+        <v>12.50147011307904</v>
       </c>
       <c r="BH6" t="n">
-        <v>16.896369492499</v>
+        <v>12.70827060140956</v>
       </c>
       <c r="BI6" t="n">
-        <v>10.88008962807548</v>
+        <v>12.87726747102027</v>
       </c>
       <c r="BJ6" t="n">
-        <v>12.22402469842254</v>
+        <v>12.83075476134288</v>
       </c>
       <c r="BK6" t="n">
-        <v>17.32853296825069</v>
+        <v>12.60702407982996</v>
       </c>
       <c r="BL6" t="n">
-        <v>12.77514963455625</v>
+        <v>13.24196990161589</v>
       </c>
       <c r="BM6" t="n">
-        <v>22.08081749263056</v>
+        <v>13.00391983604216</v>
       </c>
       <c r="BN6" t="n">
-        <v>14.44568451815769</v>
+        <v>12.80384437973893</v>
       </c>
       <c r="BO6" t="n">
-        <v>10.83738170650245</v>
+        <v>12.68688629416595</v>
       </c>
       <c r="BP6" t="n">
-        <v>16.87359906205012</v>
+        <v>13.16508814593129</v>
       </c>
       <c r="BQ6" t="n">
-        <v>7.330029291318009</v>
+        <v>12.45241886369893</v>
       </c>
       <c r="BR6" t="n">
-        <v>16.35325886057593</v>
+        <v>12.56452016859112</v>
       </c>
       <c r="BS6" t="n">
-        <v>14.74607593448018</v>
+        <v>12.81957650427603</v>
       </c>
       <c r="BT6" t="n">
-        <v>10.31880549804762</v>
+        <v>12.6967947259671</v>
       </c>
       <c r="BU6" t="n">
-        <v>19.40480277995251</v>
+        <v>13.64710110557928</v>
       </c>
       <c r="BV6" t="n">
-        <v>8.549388321541272</v>
+        <v>13.74972342904826</v>
       </c>
       <c r="BW6" t="n">
-        <v>18.92282056336818</v>
+        <v>12.47889765605736</v>
       </c>
       <c r="BX6" t="n">
-        <v>14.61875040051178</v>
+        <v>13.03198340341042</v>
       </c>
       <c r="BY6" t="n">
-        <v>15.86628150472088</v>
+        <v>12.60149283870921</v>
       </c>
       <c r="BZ6" t="n">
-        <v>25.54340487714196</v>
+        <v>12.75076461849486</v>
       </c>
       <c r="CA6" t="n">
-        <v>8.714946695464597</v>
+        <v>13.00495118828796</v>
       </c>
       <c r="CB6" t="n">
-        <v>18.79163059255802</v>
+        <v>13.13831433120889</v>
       </c>
       <c r="CC6" t="n">
-        <v>17.00974142980588</v>
+        <v>12.29342098493361</v>
       </c>
       <c r="CD6" t="n">
-        <v>15.22882998150498</v>
+        <v>12.77623911314117</v>
       </c>
       <c r="CE6" t="n">
-        <v>29.9250463711884</v>
+        <v>12.86971213390362</v>
       </c>
       <c r="CF6" t="n">
-        <v>22.01625755147388</v>
+        <v>13.5833391782211</v>
       </c>
       <c r="CG6" t="n">
-        <v>11.12307938910543</v>
+        <v>12.79002772907886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29.4529430452996</v>
+        <v>12.32183241473159</v>
       </c>
       <c r="B7" t="n">
-        <v>31.58833395522609</v>
+        <v>10.8485697490405</v>
       </c>
       <c r="C7" t="n">
-        <v>23.86147565739789</v>
+        <v>11.12010049231351</v>
       </c>
       <c r="D7" t="n">
-        <v>12.87129396664535</v>
+        <v>10.2035664190141</v>
       </c>
       <c r="E7" t="n">
-        <v>19.71157629628537</v>
+        <v>11.51867748062635</v>
       </c>
       <c r="F7" t="n">
-        <v>19.22820672232511</v>
+        <v>11.24530432537503</v>
       </c>
       <c r="G7" t="n">
-        <v>21.68835321145267</v>
+        <v>11.72359183247844</v>
       </c>
       <c r="H7" t="n">
-        <v>15.66961672779281</v>
+        <v>11.56499164664643</v>
       </c>
       <c r="I7" t="n">
-        <v>12.43452017806001</v>
+        <v>12.1630651012197</v>
       </c>
       <c r="J7" t="n">
-        <v>14.95360598818711</v>
+        <v>11.11813915269153</v>
       </c>
       <c r="K7" t="n">
-        <v>14.76627961949208</v>
+        <v>11.12212882083278</v>
       </c>
       <c r="L7" t="n">
-        <v>13.07038230305654</v>
+        <v>11.00886772976914</v>
       </c>
       <c r="M7" t="n">
-        <v>33.08606418574007</v>
+        <v>10.95298319004891</v>
       </c>
       <c r="N7" t="n">
-        <v>22.31613960471305</v>
+        <v>11.96835518167088</v>
       </c>
       <c r="O7" t="n">
-        <v>33.38630410124092</v>
+        <v>10.37479917523665</v>
       </c>
       <c r="P7" t="n">
-        <v>29.95707607579719</v>
+        <v>10.786169457063</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.568995587609201</v>
+        <v>13.36104880066598</v>
       </c>
       <c r="R7" t="n">
-        <v>15.55849246223864</v>
+        <v>10.96066232418125</v>
       </c>
       <c r="S7" t="n">
-        <v>18.60123390085507</v>
+        <v>11.71052188345149</v>
       </c>
       <c r="T7" t="n">
-        <v>27.08728909896693</v>
+        <v>11.61560046178797</v>
       </c>
       <c r="U7" t="n">
-        <v>8.626801007262477</v>
+        <v>10.29814152490406</v>
       </c>
       <c r="V7" t="n">
-        <v>12.4221274746585</v>
+        <v>10.48619552957057</v>
       </c>
       <c r="W7" t="n">
-        <v>9.08553928917118</v>
+        <v>10.43494675730689</v>
       </c>
       <c r="X7" t="n">
-        <v>19.4592411648159</v>
+        <v>11.16937476612735</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.51096542134258</v>
+        <v>12.3391167165123</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.89651738548022</v>
+        <v>11.12135885572056</v>
       </c>
       <c r="AA7" t="n">
-        <v>11.82823931398088</v>
+        <v>11.04948481514858</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.82550678875404</v>
+        <v>11.07015929935548</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.41672863739302</v>
+        <v>10.04015630639999</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.75447575503077</v>
+        <v>12.23598894100726</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.06068740288735</v>
+        <v>11.05917735687625</v>
       </c>
       <c r="AF7" t="n">
-        <v>17.37196518087201</v>
+        <v>11.69455438541467</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.8565395335043</v>
+        <v>11.58682952719297</v>
       </c>
       <c r="AH7" t="n">
-        <v>21.6167312922085</v>
+        <v>12.25674253465991</v>
       </c>
       <c r="AI7" t="n">
-        <v>23.1120823638439</v>
+        <v>10.84605461610503</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17.34889716371472</v>
+        <v>10.88880164784332</v>
       </c>
       <c r="AK7" t="n">
-        <v>23.60281368112491</v>
+        <v>11.11031860706857</v>
       </c>
       <c r="AL7" t="n">
-        <v>13.4528541754428</v>
+        <v>11.19159554745007</v>
       </c>
       <c r="AM7" t="n">
-        <v>10.15743002355248</v>
+        <v>10.56579806232442</v>
       </c>
       <c r="AN7" t="n">
-        <v>14.20306785335125</v>
+        <v>11.01586193707309</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.260609471345695</v>
+        <v>11.54403848856361</v>
       </c>
       <c r="AP7" t="n">
-        <v>9.979322836897513</v>
+        <v>10.85615542188509</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13.31324987873061</v>
+        <v>10.96140986975995</v>
       </c>
       <c r="AR7" t="n">
-        <v>18.38234437053966</v>
+        <v>11.06755292188797</v>
       </c>
       <c r="AS7" t="n">
-        <v>21.82235854139271</v>
+        <v>14.44970541611586</v>
       </c>
       <c r="AT7" t="n">
-        <v>19.67920811221205</v>
+        <v>12.22600328174626</v>
       </c>
       <c r="AU7" t="n">
-        <v>10.83571905582917</v>
+        <v>10.76971689183498</v>
       </c>
       <c r="AV7" t="n">
-        <v>17.02775637552283</v>
+        <v>10.78275385345468</v>
       </c>
       <c r="AW7" t="n">
-        <v>13.60519200924075</v>
+        <v>11.71517673439404</v>
       </c>
       <c r="AX7" t="n">
-        <v>12.60985996226179</v>
+        <v>10.66786300917866</v>
       </c>
       <c r="AY7" t="n">
-        <v>16.71162920833158</v>
+        <v>11.28810134208873</v>
       </c>
       <c r="AZ7" t="n">
-        <v>12.69828415615038</v>
+        <v>11.09413314071604</v>
       </c>
       <c r="BA7" t="n">
-        <v>15.39686138820481</v>
+        <v>10.70489966922118</v>
       </c>
       <c r="BB7" t="n">
-        <v>12.45123024221987</v>
+        <v>10.74881657871896</v>
       </c>
       <c r="BC7" t="n">
-        <v>11.83286270501327</v>
+        <v>11.37089913120487</v>
       </c>
       <c r="BD7" t="n">
-        <v>16.76100179790346</v>
+        <v>11.60081524670747</v>
       </c>
       <c r="BE7" t="n">
-        <v>9.300647569389179</v>
+        <v>11.33246360408412</v>
       </c>
       <c r="BF7" t="n">
-        <v>7.986116158752562</v>
+        <v>11.36114335303589</v>
       </c>
       <c r="BG7" t="n">
-        <v>11.2871299330783</v>
+        <v>10.91020987615275</v>
       </c>
       <c r="BH7" t="n">
-        <v>10.26306337033045</v>
+        <v>11.01419613509174</v>
       </c>
       <c r="BI7" t="n">
-        <v>15.26130871849932</v>
+        <v>11.16677606317551</v>
       </c>
       <c r="BJ7" t="n">
-        <v>21.07441301505515</v>
+        <v>11.0959919490945</v>
       </c>
       <c r="BK7" t="n">
-        <v>25.72586346376753</v>
+        <v>10.81252125297272</v>
       </c>
       <c r="BL7" t="n">
-        <v>9.861852890255607</v>
+        <v>11.59867400728414</v>
       </c>
       <c r="BM7" t="n">
-        <v>21.2874208549792</v>
+        <v>11.22729972913984</v>
       </c>
       <c r="BN7" t="n">
-        <v>18.26246949957801</v>
+        <v>11.15374077513969</v>
       </c>
       <c r="BO7" t="n">
-        <v>14.76075262574952</v>
+        <v>10.97544639844669</v>
       </c>
       <c r="BP7" t="n">
-        <v>8.668540743505169</v>
+        <v>11.56749883536518</v>
       </c>
       <c r="BQ7" t="n">
-        <v>8.829151303249692</v>
+        <v>10.74948040564087</v>
       </c>
       <c r="BR7" t="n">
-        <v>19.89725964091332</v>
+        <v>10.8541493232936</v>
       </c>
       <c r="BS7" t="n">
-        <v>22.60616566016117</v>
+        <v>11.16399450038642</v>
       </c>
       <c r="BT7" t="n">
-        <v>16.54399553985197</v>
+        <v>10.92242433207201</v>
       </c>
       <c r="BU7" t="n">
-        <v>30.72376683894545</v>
+        <v>12.06718755162789</v>
       </c>
       <c r="BV7" t="n">
-        <v>14.32281553991712</v>
+        <v>12.27411082679723</v>
       </c>
       <c r="BW7" t="n">
-        <v>13.34906211048389</v>
+        <v>10.80088558020708</v>
       </c>
       <c r="BX7" t="n">
-        <v>11.9925425300154</v>
+        <v>11.4169101676061</v>
       </c>
       <c r="BY7" t="n">
-        <v>7.631503329278765</v>
+        <v>10.89939145386368</v>
       </c>
       <c r="BZ7" t="n">
-        <v>10.34454499316287</v>
+        <v>11.09164320308315</v>
       </c>
       <c r="CA7" t="n">
-        <v>11.29224486862111</v>
+        <v>11.46015955576683</v>
       </c>
       <c r="CB7" t="n">
-        <v>11.35681149897636</v>
+        <v>11.47806878427001</v>
       </c>
       <c r="CC7" t="n">
-        <v>13.23334353814763</v>
+        <v>10.5868997832305</v>
       </c>
       <c r="CD7" t="n">
-        <v>11.8474962931815</v>
+        <v>11.10482755685982</v>
       </c>
       <c r="CE7" t="n">
-        <v>15.45419975181984</v>
+        <v>11.12762919934714</v>
       </c>
       <c r="CF7" t="n">
-        <v>8.331644350969583</v>
+        <v>11.94066836360836</v>
       </c>
       <c r="CG7" t="n">
-        <v>6.19364398103057</v>
+        <v>10.98681444808681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18.97505368475619</v>
+        <v>14.94320807916739</v>
       </c>
       <c r="B8" t="n">
-        <v>16.15099596032163</v>
+        <v>12.43228552316051</v>
       </c>
       <c r="C8" t="n">
-        <v>14.49284220632391</v>
+        <v>13.48932125358357</v>
       </c>
       <c r="D8" t="n">
-        <v>16.62454811736843</v>
+        <v>12.48203767708312</v>
       </c>
       <c r="E8" t="n">
-        <v>19.70135349517316</v>
+        <v>14.17724386535593</v>
       </c>
       <c r="F8" t="n">
-        <v>19.59383636688494</v>
+        <v>13.69725304114789</v>
       </c>
       <c r="G8" t="n">
-        <v>19.45582515141544</v>
+        <v>14.30679099598136</v>
       </c>
       <c r="H8" t="n">
-        <v>15.46889909908651</v>
+        <v>13.67124196977701</v>
       </c>
       <c r="I8" t="n">
-        <v>26.78952837547467</v>
+        <v>14.73388712234058</v>
       </c>
       <c r="J8" t="n">
-        <v>17.98806188006055</v>
+        <v>13.39091541176987</v>
       </c>
       <c r="K8" t="n">
-        <v>12.5459011389786</v>
+        <v>13.28277033954006</v>
       </c>
       <c r="L8" t="n">
-        <v>6.566491083883137</v>
+        <v>13.63341419449901</v>
       </c>
       <c r="M8" t="n">
-        <v>9.665496986865641</v>
+        <v>13.66316973103541</v>
       </c>
       <c r="N8" t="n">
-        <v>14.36548356614121</v>
+        <v>13.86233077626042</v>
       </c>
       <c r="O8" t="n">
-        <v>7.841953991785514</v>
+        <v>12.83173115317775</v>
       </c>
       <c r="P8" t="n">
-        <v>18.42103015921433</v>
+        <v>13.21042098515022</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.4020824550616</v>
+        <v>14.94991126168263</v>
       </c>
       <c r="R8" t="n">
-        <v>5.97887832273667</v>
+        <v>13.42826963898626</v>
       </c>
       <c r="S8" t="n">
-        <v>11.89449984572697</v>
+        <v>14.40041418042211</v>
       </c>
       <c r="T8" t="n">
-        <v>16.60884034645035</v>
+        <v>14.08197635859346</v>
       </c>
       <c r="U8" t="n">
-        <v>14.00195463775928</v>
+        <v>12.8037920198432</v>
       </c>
       <c r="V8" t="n">
-        <v>10.5512677952956</v>
+        <v>12.99981966417079</v>
       </c>
       <c r="W8" t="n">
-        <v>17.07245774230385</v>
+        <v>12.91788708118256</v>
       </c>
       <c r="X8" t="n">
-        <v>15.63480003792232</v>
+        <v>13.64271997006806</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.997287031939001</v>
+        <v>14.79550458710653</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.26007244004868</v>
+        <v>13.55719048239906</v>
       </c>
       <c r="AA8" t="n">
-        <v>16.85762953826368</v>
+        <v>13.40208743131151</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.43896408670153</v>
+        <v>13.56075170515833</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.49881508732231</v>
+        <v>12.58954094469186</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.30623113866659</v>
+        <v>14.83936865409372</v>
       </c>
       <c r="AE8" t="n">
-        <v>28.83378864379656</v>
+        <v>13.33828138819066</v>
       </c>
       <c r="AF8" t="n">
-        <v>29.2283904484532</v>
+        <v>14.03195511947352</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.48251993909134</v>
+        <v>13.82059648361759</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.2525474291209</v>
+        <v>13.93596990432848</v>
       </c>
       <c r="AI8" t="n">
-        <v>15.37095058509032</v>
+        <v>13.22616572105358</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18.65365070323297</v>
+        <v>13.27008112503471</v>
       </c>
       <c r="AK8" t="n">
-        <v>20.47880949968875</v>
+        <v>13.34330122599407</v>
       </c>
       <c r="AL8" t="n">
-        <v>14.19110893392073</v>
+        <v>13.55325670798975</v>
       </c>
       <c r="AM8" t="n">
-        <v>13.36782181506742</v>
+        <v>13.00986683133087</v>
       </c>
       <c r="AN8" t="n">
-        <v>17.76547307922755</v>
+        <v>13.60300925678283</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.61207657697276</v>
+        <v>13.67408443780004</v>
       </c>
       <c r="AP8" t="n">
-        <v>13.04607562093782</v>
+        <v>13.08175352591837</v>
       </c>
       <c r="AQ8" t="n">
-        <v>11.53092417576678</v>
+        <v>13.21238201637654</v>
       </c>
       <c r="AR8" t="n">
-        <v>21.53037745522206</v>
+        <v>13.28329394209133</v>
       </c>
       <c r="AS8" t="n">
-        <v>25.89952952765951</v>
+        <v>15.66721599408371</v>
       </c>
       <c r="AT8" t="n">
-        <v>6.882801862736258</v>
+        <v>14.13775465475506</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.82890783915192</v>
+        <v>13.09768365971864</v>
       </c>
       <c r="AV8" t="n">
-        <v>9.84143346562435</v>
+        <v>13.21822689977945</v>
       </c>
       <c r="AW8" t="n">
-        <v>7.847213344877251</v>
+        <v>13.73624412772153</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.010074235398204</v>
+        <v>13.24099980832631</v>
       </c>
       <c r="AY8" t="n">
-        <v>13.3597592247567</v>
+        <v>13.57988975288399</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21.98364119491903</v>
+        <v>13.26321575019857</v>
       </c>
       <c r="BA8" t="n">
-        <v>14.46207990433993</v>
+        <v>13.06522413821171</v>
       </c>
       <c r="BB8" t="n">
-        <v>10.22992439983738</v>
+        <v>13.05799701436492</v>
       </c>
       <c r="BC8" t="n">
-        <v>11.33532252663381</v>
+        <v>13.56252499080581</v>
       </c>
       <c r="BD8" t="n">
-        <v>9.066705332279582</v>
+        <v>13.58687575222428</v>
       </c>
       <c r="BE8" t="n">
-        <v>16.03926293176599</v>
+        <v>13.59571561641412</v>
       </c>
       <c r="BF8" t="n">
-        <v>6.748254080691905</v>
+        <v>13.3977528580814</v>
       </c>
       <c r="BG8" t="n">
-        <v>9.174579311504424</v>
+        <v>13.0337946226837</v>
       </c>
       <c r="BH8" t="n">
-        <v>8.422780375852625</v>
+        <v>13.2728534135901</v>
       </c>
       <c r="BI8" t="n">
-        <v>6.079147383707236</v>
+        <v>13.45167578125228</v>
       </c>
       <c r="BJ8" t="n">
-        <v>10.65277461674057</v>
+        <v>13.44023131411995</v>
       </c>
       <c r="BK8" t="n">
-        <v>11.97697915208035</v>
+        <v>13.40236197117214</v>
       </c>
       <c r="BL8" t="n">
-        <v>7.977879391832045</v>
+        <v>13.64667800275649</v>
       </c>
       <c r="BM8" t="n">
-        <v>16.40614761171882</v>
+        <v>13.74188138503915</v>
       </c>
       <c r="BN8" t="n">
-        <v>11.63038726562223</v>
+        <v>13.30689946290363</v>
       </c>
       <c r="BO8" t="n">
-        <v>5.858983293250582</v>
+        <v>13.53571647367742</v>
       </c>
       <c r="BP8" t="n">
-        <v>23.74479903916389</v>
+        <v>14.14511146979368</v>
       </c>
       <c r="BQ8" t="n">
-        <v>19.25362906897715</v>
+        <v>13.13033941760909</v>
       </c>
       <c r="BR8" t="n">
-        <v>16.55693920370935</v>
+        <v>13.15783221389566</v>
       </c>
       <c r="BS8" t="n">
-        <v>8.036918576447277</v>
+        <v>13.29838629767225</v>
       </c>
       <c r="BT8" t="n">
-        <v>5.947366314469244</v>
+        <v>13.43112514952225</v>
       </c>
       <c r="BU8" t="n">
-        <v>12.43154779942424</v>
+        <v>14.67428677490403</v>
       </c>
       <c r="BV8" t="n">
-        <v>12.71281073536199</v>
+        <v>14.07806289471178</v>
       </c>
       <c r="BW8" t="n">
-        <v>8.967336818255328</v>
+        <v>13.05487143573244</v>
       </c>
       <c r="BX8" t="n">
-        <v>13.45705859951706</v>
+        <v>13.50919502520581</v>
       </c>
       <c r="BY8" t="n">
-        <v>10.5153719751802</v>
+        <v>13.17873818045464</v>
       </c>
       <c r="BZ8" t="n">
-        <v>5.686915243750765</v>
+        <v>13.27637651906129</v>
       </c>
       <c r="CA8" t="n">
-        <v>10.73377795753997</v>
+        <v>13.46459037145132</v>
       </c>
       <c r="CB8" t="n">
-        <v>9.866899563714622</v>
+        <v>13.60015330398703</v>
       </c>
       <c r="CC8" t="n">
-        <v>6.520663207893969</v>
+        <v>12.89827483421606</v>
       </c>
       <c r="CD8" t="n">
-        <v>13.45527960871323</v>
+        <v>13.34709130509512</v>
       </c>
       <c r="CE8" t="n">
-        <v>7.964704945985897</v>
+        <v>13.60521958381909</v>
       </c>
       <c r="CF8" t="n">
-        <v>10.26941719016408</v>
+        <v>13.97958967981696</v>
       </c>
       <c r="CG8" t="n">
-        <v>20.06647503756454</v>
+        <v>13.37552977930304</v>
       </c>
     </row>
   </sheetData>
